--- a/medicine/Enfance/Lorenzo_Lunar/Lorenzo_Lunar.xlsx
+++ b/medicine/Enfance/Lorenzo_Lunar/Lorenzo_Lunar.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Lorenzo Lunar, né en 1958 à Santa Clara à Cuba, est un écrivain cubain, auteur de roman policier et de littérature d'enfance et de jeunesse.
 </t>
@@ -512,6 +524,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -539,13 +553,59 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Romans
-Série Léo Martin
-Que en vez del infierno encuentres gloria (2003) Publié en français sous le titre Boléro noir à Santa Clara, Marseille, L'Atinoir, 2009  (ISBN 978-2-918112-09-9)
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Série Léo Martin</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Que en vez del infierno encuentres gloria (2003) Publié en français sous le titre Boléro noir à Santa Clara, Marseille, L'Atinoir, 2009  (ISBN 978-2-918112-09-9)
  La vida es un tango (2005) Publié en français sous le titre La vie est un tango, Jouy-le-Moutier, ILV éditions, 2011  (ISBN 978-2-35209-485-2) ; réédition, Paris, Asphalte, coll. « Fictions Asphalte », 2013  (ISBN 978-2-918767-35-0) ; réédition, Paris, Gallimard, coll. « Folio policier » no 771, 2015  (ISBN 978-2-07-045652-9)
-Usted es la cupable (2006) Publié en français sous le titre Tu es la coupable, Jouy-le-Moutier, ILV éditions, 2011  (ISBN 978-2-35209-448-7) ; réédition sous le titre Coupable vous êtes, Paris, Asphalte, coll. « Fictions Asphalte », 2015  (ISBN 978-2-918767-48-0)
-Autres romans
-El último aliento (1995)
+Usted es la cupable (2006) Publié en français sous le titre Tu es la coupable, Jouy-le-Moutier, ILV éditions, 2011  (ISBN 978-2-35209-448-7) ; réédition sous le titre Coupable vous êtes, Paris, Asphalte, coll. « Fictions Asphalte », 2015  (ISBN 978-2-918767-48-0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Lorenzo_Lunar</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Lorenzo_Lunar</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Autres romans</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>El último aliento (1995)
 De dos pingüé (2004)
 Polvo en el viento (2005)
 El preso de la celda “raíz cuadrada de 169” (2005)
@@ -557,43 +617,113 @@
 La casa de tu vida (2010)
 Confesiones (2011)
 Mundos de sombras (2012)
-La cabellera de Berenice (2012)
-Littérature d'enfance et de jeunesse
-Y comieron perdices (2011)
-Niña (2013)
-Autres ouvrages
-Enrique en la república de Labrador (2011)
+La cabellera de Berenice (2012)</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Lorenzo_Lunar</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Lorenzo_Lunar</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Littérature d'enfance et de jeunesse</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Y comieron perdices (2011)
+Niña (2013)</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Lorenzo_Lunar</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Lorenzo_Lunar</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Autres ouvrages</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Enrique en la república de Labrador (2011)
 Viajero sin itinerarios (2011)</t>
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
         <is>
           <t>Lorenzo_Lunar</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>Portail:Enfance/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Lorenzo_Lunar</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>Prix et récompenses</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Prix de la meilleure nouvelle policière 2005 de la Semana negra pour La Boue et la Mort[1]</t>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Prix de la meilleure nouvelle policière 2005 de la Semana negra pour La Boue et la Mort</t>
         </is>
       </c>
     </row>
